--- a/biology/Botanique/Strobile/Strobile.xlsx
+++ b/biology/Botanique/Strobile/Strobile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un strobile est un terme employé en sciences de la vie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un strobile est un terme employé en sciences de la vie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme strobile vient du latin : strobilus, signifiant « tourbillon » ou du grec ancien : στρόβιλος (stróbilos, « toupie »)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme strobile vient du latin : strobilus, signifiant « tourbillon » ou du grec ancien : στρόβιλος (stróbilos, « toupie »).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En zoologie, le terme peut désigner :
 Une des phases du cycle vital de certaines méduses entre deux formes larvaires. Les différentes formes sont :  œuf, larve planula, polype, strobile, larve éphyra, méduse adulte.
@@ -574,18 +590,90 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, c'est une structure présente sur de nombreuses espèces fongiques terrestres porteuses de sporanges densément regroupées le long d'une tige.
 Les strobiles sont souvent appelés cônes en lieu et place de glomérules, mais de nombreux botanistes limitent l'utilisation du terme « cône » au fruit ligneux de conifères.
-Lycophytes
-Certains membres des deux catégories modernes de Lycopodiophyta (Lycopodiopsida et Isoetopsida) produisent des strobiles. Dans tous les cas, les organes latéraux des strobiles sont des microphylles portant des sporanges. Chez d'autres lycophytes, les feuilles ordinaires peuvent agir comme sporophylles et il n'y a pas de strobile organisé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strobile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strobile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lycophytes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains membres des deux catégories modernes de Lycopodiophyta (Lycopodiopsida et Isoetopsida) produisent des strobiles. Dans tous les cas, les organes latéraux des strobiles sont des microphylles portant des sporanges. Chez d'autres lycophytes, les feuilles ordinaires peuvent agir comme sporophylles et il n'y a pas de strobile organisé.
 			Strobile de Lycopodium
 			Strobile de Lycopodium conservé dans un liquide montrant des sporanges réniformes au travers de sporophylles translucides
 			Strobile de Selaginella
 			Strobile de Selaginella conservé dans un liquide montrant des mega et micro sporanges au travers de sporophylles translucides.
-Aulnes
-Les aulnes, de la famille des Betulaceae, possèdent de petits glomérules ligneux marron foncé nommés strobiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strobile</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strobile</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aulnes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aulnes, de la famille des Betulaceae, possèdent de petits glomérules ligneux marron foncé nommés strobiles.
 Ils persistent toute l'année sur l'arbre, les akènes qu'ils contiennent étant dispersés par le vent.
 </t>
         </is>
